--- a/product_image/product_image/10/13/10-13.xlsx
+++ b/product_image/product_image/10/13/10-13.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,9 +85,6 @@
     <t>10% 무크 겨울신발 어그/부츠/앵클 外 50종 특가</t>
   </si>
   <si>
-    <t>랩</t>
-  </si>
-  <si>
     <t>10%+22%쿠폰 LAP ACC 신상 BEST 복조리백/크로스백/미니백 파격가</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>네이티브유니온x메종키츠네 에어팟 프로 케이스 GREEN APPRO-GRN-MK</t>
   </si>
   <si>
-    <t>(롯데백화점)22년FW닥스셔츠X베노베로 캐시미어 쁘띠 남성 머플러 BIW1ACF2102-I1(선물포장)</t>
-  </si>
-  <si>
     <t>TNGT</t>
   </si>
   <si>
@@ -328,6 +322,10 @@
       <t>1</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,6 +471,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -895,11 +896,11 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>39000</v>
@@ -911,10 +912,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>29240</v>
@@ -926,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>16600</v>
@@ -941,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="4">
         <v>29600</v>
@@ -956,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4">
         <v>28000</v>
@@ -971,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="4">
         <v>19900</v>
@@ -986,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>27000</v>
@@ -1001,10 +1002,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4">
         <v>23200</v>
@@ -1016,10 +1017,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4">
         <v>28000</v>
@@ -1031,10 +1032,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="4">
         <v>28000</v>
@@ -1046,10 +1047,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="4">
         <v>30810</v>
@@ -1061,10 +1062,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4">
         <v>24180</v>
@@ -1076,10 +1077,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4">
         <v>29640</v>
@@ -1091,10 +1092,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D22" s="4">
         <v>55200</v>
@@ -1106,10 +1107,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4">
         <v>51350</v>
@@ -1121,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4">
         <v>37760</v>
@@ -1136,10 +1137,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4">
         <v>33180</v>
@@ -1151,10 +1152,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D26" s="4">
         <v>25040</v>
@@ -1166,10 +1167,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4">
         <v>12640</v>
@@ -1181,10 +1182,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="4">
         <v>5780</v>
@@ -1196,10 +1197,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D29" s="4">
         <v>73000</v>
@@ -1211,10 +1212,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D30" s="4">
         <v>32930</v>
@@ -1226,44 +1227,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="4">
-        <v>137910</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="4">
         <v>9900</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
         <v>99999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://minishop.gmarket.co.kr/ekumkang"/>
-    <hyperlink ref="B14" r:id="rId2" display="http://minishop.gmarket.co.kr/ssgtvon"/>
-    <hyperlink ref="B29" r:id="rId3" display="http://minishop.gmarket.co.kr/lottei1"/>
-    <hyperlink ref="B30" r:id="rId4" display="http://minishop.gmarket.co.kr/skstoamall"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>